--- a/Countries.xlsx
+++ b/Countries.xlsx
@@ -11,6 +11,1880 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29226" uniqueCount="623">
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Currencies</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Kabul</t>
+  </si>
+  <si>
+    <t>AFN</t>
+  </si>
+  <si>
+    <t>Åland Islands</t>
+  </si>
+  <si>
+    <t>Mariehamn</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Tirana</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Algiers</t>
+  </si>
+  <si>
+    <t>DZD</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Pago Pago</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Andorra la Vella</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>AOA</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>The Valley</t>
+  </si>
+  <si>
+    <t>XCD</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Saint John's</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Yerevan</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Oranjestad</t>
+  </si>
+  <si>
+    <t>AWG</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Manama</t>
+  </si>
+  <si>
+    <t>BHD</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bridgetown</t>
+  </si>
+  <si>
+    <t>BBD</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Minsk</t>
+  </si>
+  <si>
+    <t>BYN</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Belmopan</t>
+  </si>
+  <si>
+    <t>BZD</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Porto-Novo</t>
+  </si>
+  <si>
+    <t>XOF</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>BMD</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Thimphu</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>Kralendijk</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Sarajevo</t>
+  </si>
+  <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Gaborone</t>
+  </si>
+  <si>
+    <t>BWP</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brasília</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Diego Garcia</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Road Town</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>Charlotte Amalie</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bandar Seri Begawan</t>
+  </si>
+  <si>
+    <t>BND</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>BGN</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Ouagadougou</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Gitega</t>
+  </si>
+  <si>
+    <t>BIF</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>KHR</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Yaoundé</t>
+  </si>
+  <si>
+    <t>XAF</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Praia</t>
+  </si>
+  <si>
+    <t>CVE</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>George Town</t>
+  </si>
+  <si>
+    <t>KYD</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Bangui</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>N'Djamena</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Flying Fish Cove</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>West Island</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Moroni</t>
+  </si>
+  <si>
+    <t>KMF</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Brazzaville</t>
+  </si>
+  <si>
+    <t>Congo (Democratic Republic of the)</t>
+  </si>
+  <si>
+    <t>Kinshasa</t>
+  </si>
+  <si>
+    <t>CDF</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Avarua</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Zagreb</t>
+  </si>
+  <si>
+    <t>HRK</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Havana</t>
+  </si>
+  <si>
+    <t>CUC</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Willemstad</t>
+  </si>
+  <si>
+    <t>ANG</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Nicosia</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>CZK</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>DJF</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Roseau</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>San Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Malabo</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Asmara</t>
+  </si>
+  <si>
+    <t>ERN</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Tallinn</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Addis Ababa</t>
+  </si>
+  <si>
+    <t>ETB</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>FKP</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Tórshavn</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Suva</t>
+  </si>
+  <si>
+    <t>FJD</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Papeetē</t>
+  </si>
+  <si>
+    <t>XPF</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Port-aux-Français</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Libreville</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Banjul</t>
+  </si>
+  <si>
+    <t>GMD</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Tbilisi</t>
+  </si>
+  <si>
+    <t>GEL</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>GHS</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>GIP</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Nuuk</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>St. George's</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Hagåtña</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guatemala City</t>
+  </si>
+  <si>
+    <t>GTQ</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>St. Peter Port</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Conakry</t>
+  </si>
+  <si>
+    <t>GNF</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>GYD</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
+    <t>HTG</t>
+  </si>
+  <si>
+    <t>Vatican City</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Tegucigalpa</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>City of Victoria</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Reykjavík</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Yamoussoukro</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Tehran</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>IQD</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Jerusalem</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>JMD</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Saint Helier</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Amman</t>
+  </si>
+  <si>
+    <t>JOD</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Nur-Sultan</t>
+  </si>
+  <si>
+    <t>KZT</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>KES</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>South Tarawa</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kuwait City</t>
+  </si>
+  <si>
+    <t>KWD</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Bishkek</t>
+  </si>
+  <si>
+    <t>KGS</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Vientiane</t>
+  </si>
+  <si>
+    <t>LAK</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Beirut</t>
+  </si>
+  <si>
+    <t>LBP</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Maseru</t>
+  </si>
+  <si>
+    <t>LSL</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Monrovia</t>
+  </si>
+  <si>
+    <t>LRD</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Tripoli</t>
+  </si>
+  <si>
+    <t>LYD</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Vaduz</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Vilnius</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Skopje</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Antananarivo</t>
+  </si>
+  <si>
+    <t>MGA</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Lilongwe</t>
+  </si>
+  <si>
+    <t>MWK</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>MYR</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Malé</t>
+  </si>
+  <si>
+    <t>MVR</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Bamako</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Valletta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Majuro</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Nouakchott</t>
+  </si>
+  <si>
+    <t>MRO</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Port Louis</t>
+  </si>
+  <si>
+    <t>MUR</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Palikir</t>
+  </si>
+  <si>
+    <t>Moldova (Republic of)</t>
+  </si>
+  <si>
+    <t>Chișinău</t>
+  </si>
+  <si>
+    <t>MDL</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Ulan Bator</t>
+  </si>
+  <si>
+    <t>MNT</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Podgorica</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Rabat</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Maputo</t>
+  </si>
+  <si>
+    <t>MZN</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Naypyidaw</t>
+  </si>
+  <si>
+    <t>MMK</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Windhoek</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Yaren</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Nouméa</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Managua</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Niamey</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Abuja</t>
+  </si>
+  <si>
+    <t>NGN</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Alofi</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Korea (Democratic People's Republic of)</t>
+  </si>
+  <si>
+    <t>Pyongyang</t>
+  </si>
+  <si>
+    <t>KPW</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Saipan</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Islamabad</t>
+  </si>
+  <si>
+    <t>PKR</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Ngerulmud</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Panama City</t>
+  </si>
+  <si>
+    <t>PAB</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Port Moresby</t>
+  </si>
+  <si>
+    <t>PGK</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Asunción</t>
+  </si>
+  <si>
+    <t>PYG</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Adamstown</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Doha</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>Republic of Kosovo</t>
+  </si>
+  <si>
+    <t>Pristina</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Kigali</t>
+  </si>
+  <si>
+    <t>RWF</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>Gustavia</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Basseterre</t>
+  </si>
+  <si>
+    <t>SHP</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Castries</t>
+  </si>
+  <si>
+    <t>Saint Martin (French part)</t>
+  </si>
+  <si>
+    <t>Marigot</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint-Pierre</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Kingstown</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Apia</t>
+  </si>
+  <si>
+    <t>WST</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>City of San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>São Tomé</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Dakar</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Belgrade</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Freetown</t>
+  </si>
+  <si>
+    <t>SLL</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Philipsburg</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Bratislava</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Ljubljana</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Honiara</t>
+  </si>
+  <si>
+    <t>SBD</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Mogadishu</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Pretoria</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>Korea (Republic of)</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sri Jayawardenepura Kotte</t>
+  </si>
+  <si>
+    <t>LKR</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Khartoum</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Juba</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Paramaribo</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Mbabane</t>
+  </si>
+  <si>
+    <t>SZL</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Damascus</t>
+  </si>
+  <si>
+    <t>SYP</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Dushanbe</t>
+  </si>
+  <si>
+    <t>TJS</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>Dodoma</t>
+  </si>
+  <si>
+    <t>TZS</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Dili</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Lomé</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Fakaofo</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Nuku'alofa</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Port of Spain</t>
+  </si>
+  <si>
+    <t>TTD</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Tunis</t>
+  </si>
+  <si>
+    <t>TND</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Ankara</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Ashgabat</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Cockburn Town</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Funafuti</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Kampala</t>
+  </si>
+  <si>
+    <t>UGX</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Kyiv</t>
+  </si>
+  <si>
+    <t>UAH</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Washington, D.C.</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>UYU</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Tashkent</t>
+  </si>
+  <si>
+    <t>UZS</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Port Vila</t>
+  </si>
+  <si>
+    <t>VUV</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>VEF</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Hanoi</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Mata-Utu</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>El Aaiún</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Sana'a</t>
+  </si>
+  <si>
+    <t>YER</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Lusaka</t>
+  </si>
+  <si>
+    <t>ZMW</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Harare</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44,7 +1918,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -340,12 +2215,3339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>652230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1580</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>28748</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>2381741</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>199</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>468</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1246700</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>442</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>2780400</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>29743</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>7692024</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>83871</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>86600</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>13943</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>765</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>147570</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>430</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>207600</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <v>30528</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25">
+        <v>22966</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26">
+        <v>112622</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <v>38394</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29">
+        <v>1098581</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>294</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31">
+        <v>51209</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32">
+        <v>582000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33">
+        <v>8515767</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36">
+        <v>346.36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37">
+        <v>5765</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>110879</v>
+      </c>
+      <c r="D38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39">
+        <v>272967</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40">
+        <v>27834</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41">
+        <v>181035</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42">
+        <v>475442</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43">
+        <v>9984670</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44">
+        <v>4033</v>
+      </c>
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45">
+        <v>264</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46">
+        <v>622984</v>
+      </c>
+      <c r="D46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47">
+        <v>1284000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48">
+        <v>756102</v>
+      </c>
+      <c r="D48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49">
+        <v>9640011</v>
+      </c>
+      <c r="D49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50">
+        <v>135</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52">
+        <v>1141748</v>
+      </c>
+      <c r="D52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53">
+        <v>1862</v>
+      </c>
+      <c r="D53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54">
+        <v>342000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55">
+        <v>2344858</v>
+      </c>
+      <c r="D55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56">
+        <v>236</v>
+      </c>
+      <c r="D56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57">
+        <v>51100</v>
+      </c>
+      <c r="D57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58">
+        <v>56594</v>
+      </c>
+      <c r="D58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59">
+        <v>109884</v>
+      </c>
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60">
+        <v>444</v>
+      </c>
+      <c r="D60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61">
+        <v>9251</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62">
+        <v>78865</v>
+      </c>
+      <c r="D62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63">
+        <v>43094</v>
+      </c>
+      <c r="D63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64">
+        <v>23200</v>
+      </c>
+      <c r="D64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65">
+        <v>751</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66">
+        <v>48671</v>
+      </c>
+      <c r="D66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67">
+        <v>276841</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68">
+        <v>1002450</v>
+      </c>
+      <c r="D68" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69">
+        <v>21041</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70">
+        <v>28051</v>
+      </c>
+      <c r="D70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71">
+        <v>117600</v>
+      </c>
+      <c r="D71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72">
+        <v>45227</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73">
+        <v>1104300</v>
+      </c>
+      <c r="D73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74">
+        <v>12173</v>
+      </c>
+      <c r="D74" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75">
+        <v>1393</v>
+      </c>
+      <c r="D75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76">
+        <v>18272</v>
+      </c>
+      <c r="D76" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77">
+        <v>338424</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>204</v>
+      </c>
+      <c r="B78" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78">
+        <v>640679</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79">
+        <v>4167</v>
+      </c>
+      <c r="D79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>209</v>
+      </c>
+      <c r="B80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80">
+        <v>7747</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81">
+        <v>267668</v>
+      </c>
+      <c r="D81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>213</v>
+      </c>
+      <c r="B82" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82">
+        <v>11295</v>
+      </c>
+      <c r="D82" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83">
+        <v>69700</v>
+      </c>
+      <c r="D83" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>219</v>
+      </c>
+      <c r="B84" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84">
+        <v>357114</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85">
+        <v>238533</v>
+      </c>
+      <c r="D85" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87">
+        <v>131990</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88">
+        <v>2166086</v>
+      </c>
+      <c r="D88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>230</v>
+      </c>
+      <c r="B89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89">
+        <v>344</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90">
+        <v>549</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91">
+        <v>108889</v>
+      </c>
+      <c r="D91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>237</v>
+      </c>
+      <c r="B92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92">
+        <v>78</v>
+      </c>
+      <c r="D92" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>240</v>
+      </c>
+      <c r="B93" t="s">
+        <v>241</v>
+      </c>
+      <c r="C93">
+        <v>245857</v>
+      </c>
+      <c r="D93" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94">
+        <v>36125</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>245</v>
+      </c>
+      <c r="B95" t="s">
+        <v>246</v>
+      </c>
+      <c r="C95">
+        <v>214969</v>
+      </c>
+      <c r="D95" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>248</v>
+      </c>
+      <c r="B96" t="s">
+        <v>249</v>
+      </c>
+      <c r="C96">
+        <v>27750</v>
+      </c>
+      <c r="D96" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>251</v>
+      </c>
+      <c r="B97" t="s">
+        <v>251</v>
+      </c>
+      <c r="C97">
+        <v>0.44</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>252</v>
+      </c>
+      <c r="B98" t="s">
+        <v>253</v>
+      </c>
+      <c r="C98">
+        <v>112492</v>
+      </c>
+      <c r="D98" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>255</v>
+      </c>
+      <c r="B99" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99">
+        <v>93028</v>
+      </c>
+      <c r="D99" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>258</v>
+      </c>
+      <c r="B100" t="s">
+        <v>259</v>
+      </c>
+      <c r="C100">
+        <v>1104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>261</v>
+      </c>
+      <c r="B101" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101">
+        <v>103000</v>
+      </c>
+      <c r="D101" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>264</v>
+      </c>
+      <c r="B102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C102">
+        <v>3287590</v>
+      </c>
+      <c r="D102" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>267</v>
+      </c>
+      <c r="B103" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103">
+        <v>1904569</v>
+      </c>
+      <c r="D103" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104">
+        <v>322463</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105">
+        <v>1648195</v>
+      </c>
+      <c r="D105" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" t="s">
+        <v>276</v>
+      </c>
+      <c r="C106">
+        <v>438317</v>
+      </c>
+      <c r="D106" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>278</v>
+      </c>
+      <c r="B107" t="s">
+        <v>279</v>
+      </c>
+      <c r="C107">
+        <v>70273</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>280</v>
+      </c>
+      <c r="B108" t="s">
+        <v>281</v>
+      </c>
+      <c r="C108">
+        <v>572</v>
+      </c>
+      <c r="D108" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>282</v>
+      </c>
+      <c r="B109" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109">
+        <v>20770</v>
+      </c>
+      <c r="D109" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>285</v>
+      </c>
+      <c r="B110" t="s">
+        <v>286</v>
+      </c>
+      <c r="C110">
+        <v>301336</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>287</v>
+      </c>
+      <c r="B111" t="s">
+        <v>288</v>
+      </c>
+      <c r="C111">
+        <v>10991</v>
+      </c>
+      <c r="D111" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>290</v>
+      </c>
+      <c r="B112" t="s">
+        <v>291</v>
+      </c>
+      <c r="C112">
+        <v>377930</v>
+      </c>
+      <c r="D112" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>293</v>
+      </c>
+      <c r="B113" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113">
+        <v>116</v>
+      </c>
+      <c r="D113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>295</v>
+      </c>
+      <c r="B114" t="s">
+        <v>296</v>
+      </c>
+      <c r="C114">
+        <v>89342</v>
+      </c>
+      <c r="D114" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>298</v>
+      </c>
+      <c r="B115" t="s">
+        <v>299</v>
+      </c>
+      <c r="C115">
+        <v>2724900</v>
+      </c>
+      <c r="D115" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>301</v>
+      </c>
+      <c r="B116" t="s">
+        <v>302</v>
+      </c>
+      <c r="C116">
+        <v>580367</v>
+      </c>
+      <c r="D116" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>304</v>
+      </c>
+      <c r="B117" t="s">
+        <v>305</v>
+      </c>
+      <c r="C117">
+        <v>811</v>
+      </c>
+      <c r="D117" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>306</v>
+      </c>
+      <c r="B118" t="s">
+        <v>307</v>
+      </c>
+      <c r="C118">
+        <v>17818</v>
+      </c>
+      <c r="D118" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>309</v>
+      </c>
+      <c r="B119" t="s">
+        <v>310</v>
+      </c>
+      <c r="C119">
+        <v>199951</v>
+      </c>
+      <c r="D119" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>312</v>
+      </c>
+      <c r="B120" t="s">
+        <v>313</v>
+      </c>
+      <c r="C120">
+        <v>236800</v>
+      </c>
+      <c r="D120" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>315</v>
+      </c>
+      <c r="B121" t="s">
+        <v>316</v>
+      </c>
+      <c r="C121">
+        <v>64559</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>317</v>
+      </c>
+      <c r="B122" t="s">
+        <v>318</v>
+      </c>
+      <c r="C122">
+        <v>10452</v>
+      </c>
+      <c r="D122" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>320</v>
+      </c>
+      <c r="B123" t="s">
+        <v>321</v>
+      </c>
+      <c r="C123">
+        <v>30355</v>
+      </c>
+      <c r="D123" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>323</v>
+      </c>
+      <c r="B124" t="s">
+        <v>324</v>
+      </c>
+      <c r="C124">
+        <v>111369</v>
+      </c>
+      <c r="D124" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>326</v>
+      </c>
+      <c r="B125" t="s">
+        <v>327</v>
+      </c>
+      <c r="C125">
+        <v>1759540</v>
+      </c>
+      <c r="D125" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>329</v>
+      </c>
+      <c r="B126" t="s">
+        <v>330</v>
+      </c>
+      <c r="C126">
+        <v>160</v>
+      </c>
+      <c r="D126" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>332</v>
+      </c>
+      <c r="B127" t="s">
+        <v>333</v>
+      </c>
+      <c r="C127">
+        <v>65300</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>334</v>
+      </c>
+      <c r="B128" t="s">
+        <v>334</v>
+      </c>
+      <c r="C128">
+        <v>2586</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>335</v>
+      </c>
+      <c r="B129" t="s">
+        <v>336</v>
+      </c>
+      <c r="C129">
+        <v>25713</v>
+      </c>
+      <c r="D129" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>338</v>
+      </c>
+      <c r="B130" t="s">
+        <v>339</v>
+      </c>
+      <c r="C130">
+        <v>587041</v>
+      </c>
+      <c r="D130" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>341</v>
+      </c>
+      <c r="B131" t="s">
+        <v>342</v>
+      </c>
+      <c r="C131">
+        <v>118484</v>
+      </c>
+      <c r="D131" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>344</v>
+      </c>
+      <c r="B132" t="s">
+        <v>345</v>
+      </c>
+      <c r="C132">
+        <v>330803</v>
+      </c>
+      <c r="D132" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>347</v>
+      </c>
+      <c r="B133" t="s">
+        <v>348</v>
+      </c>
+      <c r="C133">
+        <v>300</v>
+      </c>
+      <c r="D133" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>350</v>
+      </c>
+      <c r="B134" t="s">
+        <v>351</v>
+      </c>
+      <c r="C134">
+        <v>1240192</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>352</v>
+      </c>
+      <c r="B135" t="s">
+        <v>353</v>
+      </c>
+      <c r="C135">
+        <v>316</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>354</v>
+      </c>
+      <c r="B136" t="s">
+        <v>355</v>
+      </c>
+      <c r="C136">
+        <v>181</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>356</v>
+      </c>
+      <c r="B137" t="s">
+        <v>357</v>
+      </c>
+      <c r="C137">
+        <v>1030700</v>
+      </c>
+      <c r="D137" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>359</v>
+      </c>
+      <c r="B138" t="s">
+        <v>360</v>
+      </c>
+      <c r="C138">
+        <v>2040</v>
+      </c>
+      <c r="D138" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>362</v>
+      </c>
+      <c r="B139" t="s">
+        <v>363</v>
+      </c>
+      <c r="C139">
+        <v>1964375</v>
+      </c>
+      <c r="D139" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>365</v>
+      </c>
+      <c r="B140" t="s">
+        <v>366</v>
+      </c>
+      <c r="C140">
+        <v>702</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>367</v>
+      </c>
+      <c r="B141" t="s">
+        <v>368</v>
+      </c>
+      <c r="C141">
+        <v>33846</v>
+      </c>
+      <c r="D141" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>370</v>
+      </c>
+      <c r="B142" t="s">
+        <v>370</v>
+      </c>
+      <c r="C142">
+        <v>2.02</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>371</v>
+      </c>
+      <c r="B143" t="s">
+        <v>372</v>
+      </c>
+      <c r="C143">
+        <v>1564110</v>
+      </c>
+      <c r="D143" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>374</v>
+      </c>
+      <c r="B144" t="s">
+        <v>375</v>
+      </c>
+      <c r="C144">
+        <v>13812</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>376</v>
+      </c>
+      <c r="B145" t="s">
+        <v>377</v>
+      </c>
+      <c r="C145">
+        <v>102</v>
+      </c>
+      <c r="D145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>378</v>
+      </c>
+      <c r="B146" t="s">
+        <v>379</v>
+      </c>
+      <c r="C146">
+        <v>446550</v>
+      </c>
+      <c r="D146" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>381</v>
+      </c>
+      <c r="B147" t="s">
+        <v>382</v>
+      </c>
+      <c r="C147">
+        <v>801590</v>
+      </c>
+      <c r="D147" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>384</v>
+      </c>
+      <c r="B148" t="s">
+        <v>385</v>
+      </c>
+      <c r="C148">
+        <v>676578</v>
+      </c>
+      <c r="D148" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>387</v>
+      </c>
+      <c r="B149" t="s">
+        <v>388</v>
+      </c>
+      <c r="C149">
+        <v>825615</v>
+      </c>
+      <c r="D149" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>390</v>
+      </c>
+      <c r="B150" t="s">
+        <v>391</v>
+      </c>
+      <c r="C150">
+        <v>21</v>
+      </c>
+      <c r="D150" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>392</v>
+      </c>
+      <c r="B151" t="s">
+        <v>393</v>
+      </c>
+      <c r="C151">
+        <v>147181</v>
+      </c>
+      <c r="D151" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>395</v>
+      </c>
+      <c r="B152" t="s">
+        <v>396</v>
+      </c>
+      <c r="C152">
+        <v>41850</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>397</v>
+      </c>
+      <c r="B153" t="s">
+        <v>398</v>
+      </c>
+      <c r="C153">
+        <v>18575</v>
+      </c>
+      <c r="D153" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>399</v>
+      </c>
+      <c r="B154" t="s">
+        <v>400</v>
+      </c>
+      <c r="C154">
+        <v>270467</v>
+      </c>
+      <c r="D154" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>401</v>
+      </c>
+      <c r="B155" t="s">
+        <v>402</v>
+      </c>
+      <c r="C155">
+        <v>130373</v>
+      </c>
+      <c r="D155" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>404</v>
+      </c>
+      <c r="B156" t="s">
+        <v>405</v>
+      </c>
+      <c r="C156">
+        <v>1267000</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>406</v>
+      </c>
+      <c r="B157" t="s">
+        <v>407</v>
+      </c>
+      <c r="C157">
+        <v>923768</v>
+      </c>
+      <c r="D157" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>409</v>
+      </c>
+      <c r="B158" t="s">
+        <v>410</v>
+      </c>
+      <c r="C158">
+        <v>260</v>
+      </c>
+      <c r="D158" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>411</v>
+      </c>
+      <c r="B159" t="s">
+        <v>288</v>
+      </c>
+      <c r="C159">
+        <v>36</v>
+      </c>
+      <c r="D159" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>412</v>
+      </c>
+      <c r="B160" t="s">
+        <v>413</v>
+      </c>
+      <c r="C160">
+        <v>120538</v>
+      </c>
+      <c r="D160" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>415</v>
+      </c>
+      <c r="B161" t="s">
+        <v>416</v>
+      </c>
+      <c r="C161">
+        <v>464</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>417</v>
+      </c>
+      <c r="B162" t="s">
+        <v>418</v>
+      </c>
+      <c r="C162">
+        <v>323802</v>
+      </c>
+      <c r="D162" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>420</v>
+      </c>
+      <c r="B163" t="s">
+        <v>421</v>
+      </c>
+      <c r="C163">
+        <v>309500</v>
+      </c>
+      <c r="D163" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>423</v>
+      </c>
+      <c r="B164" t="s">
+        <v>424</v>
+      </c>
+      <c r="C164">
+        <v>881912</v>
+      </c>
+      <c r="D164" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>426</v>
+      </c>
+      <c r="B165" t="s">
+        <v>427</v>
+      </c>
+      <c r="C165">
+        <v>459</v>
+      </c>
+      <c r="D165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>428</v>
+      </c>
+      <c r="B166" t="s">
+        <v>429</v>
+      </c>
+      <c r="C166">
+        <v>75417</v>
+      </c>
+      <c r="D166" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>431</v>
+      </c>
+      <c r="B167" t="s">
+        <v>432</v>
+      </c>
+      <c r="C167">
+        <v>462840</v>
+      </c>
+      <c r="D167" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>434</v>
+      </c>
+      <c r="B168" t="s">
+        <v>435</v>
+      </c>
+      <c r="C168">
+        <v>406752</v>
+      </c>
+      <c r="D168" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>437</v>
+      </c>
+      <c r="B169" t="s">
+        <v>438</v>
+      </c>
+      <c r="C169">
+        <v>1285216</v>
+      </c>
+      <c r="D169" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>440</v>
+      </c>
+      <c r="B170" t="s">
+        <v>441</v>
+      </c>
+      <c r="C170">
+        <v>342353</v>
+      </c>
+      <c r="D170" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>443</v>
+      </c>
+      <c r="B171" t="s">
+        <v>444</v>
+      </c>
+      <c r="C171">
+        <v>47</v>
+      </c>
+      <c r="D171" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>445</v>
+      </c>
+      <c r="B172" t="s">
+        <v>446</v>
+      </c>
+      <c r="C172">
+        <v>312679</v>
+      </c>
+      <c r="D172" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>448</v>
+      </c>
+      <c r="B173" t="s">
+        <v>449</v>
+      </c>
+      <c r="C173">
+        <v>92090</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>450</v>
+      </c>
+      <c r="B174" t="s">
+        <v>451</v>
+      </c>
+      <c r="C174">
+        <v>8870</v>
+      </c>
+      <c r="D174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>452</v>
+      </c>
+      <c r="B175" t="s">
+        <v>453</v>
+      </c>
+      <c r="C175">
+        <v>11586</v>
+      </c>
+      <c r="D175" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>455</v>
+      </c>
+      <c r="B176" t="s">
+        <v>456</v>
+      </c>
+      <c r="C176">
+        <v>10908</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>457</v>
+      </c>
+      <c r="B177" t="s">
+        <v>458</v>
+      </c>
+      <c r="C177">
+        <v>238391</v>
+      </c>
+      <c r="D177" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>460</v>
+      </c>
+      <c r="B178" t="s">
+        <v>461</v>
+      </c>
+      <c r="C178">
+        <v>17124442</v>
+      </c>
+      <c r="D178" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>463</v>
+      </c>
+      <c r="B179" t="s">
+        <v>464</v>
+      </c>
+      <c r="C179">
+        <v>26338</v>
+      </c>
+      <c r="D179" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>466</v>
+      </c>
+      <c r="B180" t="s">
+        <v>467</v>
+      </c>
+      <c r="C180">
+        <v>21</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>468</v>
+      </c>
+      <c r="B181" t="s">
+        <v>469</v>
+      </c>
+      <c r="C181">
+        <v>261</v>
+      </c>
+      <c r="D181" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>471</v>
+      </c>
+      <c r="B182" t="s">
+        <v>472</v>
+      </c>
+      <c r="C182">
+        <v>616</v>
+      </c>
+      <c r="D182" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>473</v>
+      </c>
+      <c r="B183" t="s">
+        <v>474</v>
+      </c>
+      <c r="C183">
+        <v>53</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>475</v>
+      </c>
+      <c r="B184" t="s">
+        <v>476</v>
+      </c>
+      <c r="C184">
+        <v>242</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>477</v>
+      </c>
+      <c r="B185" t="s">
+        <v>478</v>
+      </c>
+      <c r="C185">
+        <v>389</v>
+      </c>
+      <c r="D185" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>479</v>
+      </c>
+      <c r="B186" t="s">
+        <v>480</v>
+      </c>
+      <c r="C186">
+        <v>2842</v>
+      </c>
+      <c r="D186" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>482</v>
+      </c>
+      <c r="B187" t="s">
+        <v>483</v>
+      </c>
+      <c r="C187">
+        <v>61</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>484</v>
+      </c>
+      <c r="B188" t="s">
+        <v>485</v>
+      </c>
+      <c r="C188">
+        <v>964</v>
+      </c>
+      <c r="D188" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>487</v>
+      </c>
+      <c r="B189" t="s">
+        <v>488</v>
+      </c>
+      <c r="C189">
+        <v>2149690</v>
+      </c>
+      <c r="D189" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>490</v>
+      </c>
+      <c r="B190" t="s">
+        <v>491</v>
+      </c>
+      <c r="C190">
+        <v>196722</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>492</v>
+      </c>
+      <c r="B191" t="s">
+        <v>493</v>
+      </c>
+      <c r="C191">
+        <v>88361</v>
+      </c>
+      <c r="D191" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>495</v>
+      </c>
+      <c r="B192" t="s">
+        <v>496</v>
+      </c>
+      <c r="C192">
+        <v>452</v>
+      </c>
+      <c r="D192" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>498</v>
+      </c>
+      <c r="B193" t="s">
+        <v>499</v>
+      </c>
+      <c r="C193">
+        <v>71740</v>
+      </c>
+      <c r="D193" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>501</v>
+      </c>
+      <c r="B194" t="s">
+        <v>501</v>
+      </c>
+      <c r="C194">
+        <v>710</v>
+      </c>
+      <c r="D194" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>503</v>
+      </c>
+      <c r="B195" t="s">
+        <v>504</v>
+      </c>
+      <c r="C195">
+        <v>34</v>
+      </c>
+      <c r="D195" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>505</v>
+      </c>
+      <c r="B196" t="s">
+        <v>506</v>
+      </c>
+      <c r="C196">
+        <v>49037</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>507</v>
+      </c>
+      <c r="B197" t="s">
+        <v>508</v>
+      </c>
+      <c r="C197">
+        <v>20273</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>509</v>
+      </c>
+      <c r="B198" t="s">
+        <v>510</v>
+      </c>
+      <c r="C198">
+        <v>28896</v>
+      </c>
+      <c r="D198" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>512</v>
+      </c>
+      <c r="B199" t="s">
+        <v>513</v>
+      </c>
+      <c r="C199">
+        <v>637657</v>
+      </c>
+      <c r="D199" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>515</v>
+      </c>
+      <c r="B200" t="s">
+        <v>516</v>
+      </c>
+      <c r="C200">
+        <v>1221037</v>
+      </c>
+      <c r="D200" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>518</v>
+      </c>
+      <c r="B201" t="s">
+        <v>519</v>
+      </c>
+      <c r="C201">
+        <v>100210</v>
+      </c>
+      <c r="D201" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>521</v>
+      </c>
+      <c r="B202" t="s">
+        <v>522</v>
+      </c>
+      <c r="C202">
+        <v>505992</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>523</v>
+      </c>
+      <c r="B203" t="s">
+        <v>524</v>
+      </c>
+      <c r="C203">
+        <v>65610</v>
+      </c>
+      <c r="D203" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>526</v>
+      </c>
+      <c r="B204" t="s">
+        <v>527</v>
+      </c>
+      <c r="C204">
+        <v>1886068</v>
+      </c>
+      <c r="D204" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>529</v>
+      </c>
+      <c r="B205" t="s">
+        <v>530</v>
+      </c>
+      <c r="C205">
+        <v>619745</v>
+      </c>
+      <c r="D205" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>532</v>
+      </c>
+      <c r="B206" t="s">
+        <v>533</v>
+      </c>
+      <c r="C206">
+        <v>163820</v>
+      </c>
+      <c r="D206" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>535</v>
+      </c>
+      <c r="B207" t="s">
+        <v>536</v>
+      </c>
+      <c r="C207">
+        <v>17364</v>
+      </c>
+      <c r="D207" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>538</v>
+      </c>
+      <c r="B208" t="s">
+        <v>539</v>
+      </c>
+      <c r="C208">
+        <v>450295</v>
+      </c>
+      <c r="D208" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>541</v>
+      </c>
+      <c r="B209" t="s">
+        <v>542</v>
+      </c>
+      <c r="C209">
+        <v>41284</v>
+      </c>
+      <c r="D209" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>543</v>
+      </c>
+      <c r="B210" t="s">
+        <v>544</v>
+      </c>
+      <c r="C210">
+        <v>185180</v>
+      </c>
+      <c r="D210" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>546</v>
+      </c>
+      <c r="B211" t="s">
+        <v>547</v>
+      </c>
+      <c r="C211">
+        <v>36193</v>
+      </c>
+      <c r="D211" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>549</v>
+      </c>
+      <c r="B212" t="s">
+        <v>550</v>
+      </c>
+      <c r="C212">
+        <v>143100</v>
+      </c>
+      <c r="D212" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>552</v>
+      </c>
+      <c r="B213" t="s">
+        <v>553</v>
+      </c>
+      <c r="C213">
+        <v>945087</v>
+      </c>
+      <c r="D213" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>555</v>
+      </c>
+      <c r="B214" t="s">
+        <v>556</v>
+      </c>
+      <c r="C214">
+        <v>513120</v>
+      </c>
+      <c r="D214" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>558</v>
+      </c>
+      <c r="B215" t="s">
+        <v>559</v>
+      </c>
+      <c r="C215">
+        <v>14874</v>
+      </c>
+      <c r="D215" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>560</v>
+      </c>
+      <c r="B216" t="s">
+        <v>561</v>
+      </c>
+      <c r="C216">
+        <v>56785</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>562</v>
+      </c>
+      <c r="B217" t="s">
+        <v>563</v>
+      </c>
+      <c r="C217">
+        <v>12</v>
+      </c>
+      <c r="D217" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>564</v>
+      </c>
+      <c r="B218" t="s">
+        <v>565</v>
+      </c>
+      <c r="C218">
+        <v>747</v>
+      </c>
+      <c r="D218" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>567</v>
+      </c>
+      <c r="B219" t="s">
+        <v>568</v>
+      </c>
+      <c r="C219">
+        <v>5130</v>
+      </c>
+      <c r="D219" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>570</v>
+      </c>
+      <c r="B220" t="s">
+        <v>571</v>
+      </c>
+      <c r="C220">
+        <v>163610</v>
+      </c>
+      <c r="D220" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>573</v>
+      </c>
+      <c r="B221" t="s">
+        <v>574</v>
+      </c>
+      <c r="C221">
+        <v>783562</v>
+      </c>
+      <c r="D221" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>576</v>
+      </c>
+      <c r="B222" t="s">
+        <v>577</v>
+      </c>
+      <c r="C222">
+        <v>488100</v>
+      </c>
+      <c r="D222" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>579</v>
+      </c>
+      <c r="B223" t="s">
+        <v>580</v>
+      </c>
+      <c r="C223">
+        <v>948</v>
+      </c>
+      <c r="D223" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>581</v>
+      </c>
+      <c r="B224" t="s">
+        <v>582</v>
+      </c>
+      <c r="C224">
+        <v>26</v>
+      </c>
+      <c r="D224" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>583</v>
+      </c>
+      <c r="B225" t="s">
+        <v>584</v>
+      </c>
+      <c r="C225">
+        <v>241550</v>
+      </c>
+      <c r="D225" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>586</v>
+      </c>
+      <c r="B226" t="s">
+        <v>587</v>
+      </c>
+      <c r="C226">
+        <v>603700</v>
+      </c>
+      <c r="D226" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>589</v>
+      </c>
+      <c r="B227" t="s">
+        <v>590</v>
+      </c>
+      <c r="C227">
+        <v>83600</v>
+      </c>
+      <c r="D227" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>592</v>
+      </c>
+      <c r="B228" t="s">
+        <v>593</v>
+      </c>
+      <c r="C228">
+        <v>242900</v>
+      </c>
+      <c r="D228" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>594</v>
+      </c>
+      <c r="B229" t="s">
+        <v>595</v>
+      </c>
+      <c r="C229">
+        <v>9629091</v>
+      </c>
+      <c r="D229" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>596</v>
+      </c>
+      <c r="B230" t="s">
+        <v>597</v>
+      </c>
+      <c r="C230">
+        <v>181034</v>
+      </c>
+      <c r="D230" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>599</v>
+      </c>
+      <c r="B231" t="s">
+        <v>600</v>
+      </c>
+      <c r="C231">
+        <v>447400</v>
+      </c>
+      <c r="D231" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>602</v>
+      </c>
+      <c r="B232" t="s">
+        <v>603</v>
+      </c>
+      <c r="C232">
+        <v>12189</v>
+      </c>
+      <c r="D232" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>605</v>
+      </c>
+      <c r="B233" t="s">
+        <v>606</v>
+      </c>
+      <c r="C233">
+        <v>916445</v>
+      </c>
+      <c r="D233" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>608</v>
+      </c>
+      <c r="B234" t="s">
+        <v>609</v>
+      </c>
+      <c r="C234">
+        <v>331212</v>
+      </c>
+      <c r="D234" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>611</v>
+      </c>
+      <c r="B235" t="s">
+        <v>612</v>
+      </c>
+      <c r="C235">
+        <v>142</v>
+      </c>
+      <c r="D235" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>613</v>
+      </c>
+      <c r="B236" t="s">
+        <v>614</v>
+      </c>
+      <c r="C236">
+        <v>266000</v>
+      </c>
+      <c r="D236" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>615</v>
+      </c>
+      <c r="B237" t="s">
+        <v>616</v>
+      </c>
+      <c r="C237">
+        <v>527968</v>
+      </c>
+      <c r="D237" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>618</v>
+      </c>
+      <c r="B238" t="s">
+        <v>619</v>
+      </c>
+      <c r="C238">
+        <v>752618</v>
+      </c>
+      <c r="D238" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>621</v>
+      </c>
+      <c r="B239" t="s">
+        <v>622</v>
+      </c>
+      <c r="C239">
+        <v>390757</v>
+      </c>
+      <c r="D239" t="s">
+        <v>620</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>